--- a/election_votar_data/LOHAGARA/PADUA/152577/152577_com_2056_male_without_photo_115_2025-11-24.pdf.xlsx
+++ b/election_votar_data/LOHAGARA/PADUA/152577/152577_com_2056_male_without_photo_115_2025-11-24.pdf.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="46.5" customWidth="1" min="4" max="4"/>
     <col width="44" customWidth="1" min="5" max="5"/>
-    <col width="41.5" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -22911,7 +22911,7 @@
       </c>
       <c r="F535" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী জন্ম তারিখ: ২৯/১০/১৯৭৭</t>
         </is>
       </c>
       <c r="G535" s="3" t="inlineStr">
@@ -33201,7 +33201,7 @@
       </c>
       <c r="F780" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী জন্ম তারিখ: ০৩/০৯/২০০২</t>
         </is>
       </c>
       <c r="G780" s="3" t="inlineStr">
@@ -58947,7 +58947,7 @@
       </c>
       <c r="F1393" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেকার জন্ম তারিখ: ০৫/০৬/১৯৯৮</t>
         </is>
       </c>
       <c r="G1393" s="3" t="inlineStr">
